--- a/finalrecord.xlsx
+++ b/finalrecord.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,198 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M14 5G (Smoky Teal,6GB,128GB)|50MP Triple Cam|Segment's Only 6000 mAh 5G SP|5nm Processor|2 Gen. OS Upgrade &amp; 4 Year Security Update|12GB RAM with RAM Plus|Android 13|without Charger</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>16,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M14 4G (Arctic Blue,4GB,64GB) | 50MP Triple Cam | 5000mAh Battery | Snapdragon 680 Processor | 2 Gen. OS Upgrade &amp; 4 Year Security Update | 8GB RAM with RAM Plus | without Charger</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>16,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M34 5G (Prism Silver,6GB,128GB)|120Hz sAMOLED Display|50MP Triple No Shake Cam|6000 mAh Battery|4 Gen OS Upgrade &amp; 5 Year Security Update|12GB RAM with RAM+|Android 13|without Charger</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>16,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M34 5G (Waterfall Blue,6GB,128GB)|120Hz sAMOLED Display|50MP Triple No Shake Cam|6000 mAh Battery|4 Gen OS Upgrade &amp; 5 Year Security Update|12GB RAM with RAM+|Android 13|Without Charger</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M14 4G (Sapphire Blue,4GB,64GB) | 50MP Triple Cam | 5000mAh Battery | Snapdragon 680 Processor | 2 Gen. OS Upgrade &amp; 4 Year Security Update | 8GB RAM with RAM Plus | without Charger</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>12,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy F54 5G (Stardust Silver, 256 GB) (8 GB RAM)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>69,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy A15 5G (Blue Black, 6GB, 128GB Storage) | 50 MP Main Camera | Android 14 with One UI 6.0 | 12GB Expandable RAM | MediaTek Dimensity 6100+ | 5000 mAh Battery</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>12,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy A35 5G (Awesome Lilac, 8GB RAM, 256GB Storage) | Premium Glass Back | 50 MP Main Camera (OIS) | Nightography | IP67 | Corning Gorilla Glass Victus+ | sAMOLED with Vision Booster</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8,475</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M14 4G (Sapphire Blue,6GB,128GB) | 50MP Triple Cam | 5000mAh Battery | Snapdragon 680 Processor | 2 Gen. OS Upgrade &amp; 4 Year Security Update | 12GB RAM with RAM Plus | without Charger</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>22,685</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M15 5G (Celestial Blue,6GB RAM,128GB Storage)| 50MP Triple Cam| 6000mAh Battery|MediaTek Dimensity 6100+| 4 Gen. OS Upgrade &amp; 5 Year Security Update|Super AMOLED Display|Without Charger</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>17,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M14 5G (Smoky Teal,4GB,128GB)|50MP Triple Cam|Segment's Only 6000 mAh 5G SP|5nm Processor|2 Gen. OS Upgrade &amp; 4 Year Security Update|8GB RAM with RAM Plus|Android 13|without Charger</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>33,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy A15 5G (Blue Black, 8GB, 256GB Storage) | 50 MP Main Camera | Android 14 with One UI 6.0 | 16GB Expandable RAM | MediaTek Dimensity 6100+ | 5000 mAh Battery</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>11,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy M15 5G (Celestial Blue,8GB RAM,128GB Storage)| 50MP Triple Cam| 6000mAh Battery|MediaTek Dimensity 6100+| 4 Gen. OS Upgrade &amp; 5 Year Security Update|Super AMOLED Display|Without Charger</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>14,499</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy A05 (Light Green, 4GB, 64GB Storage) | 50 MP Main Camera | Upto 8GB RAM with RAM Plus | MediaTek Helio G85 | 5000 mAh Battery</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>16,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy S22 5G (Green, 8GB, 128GB Storage) with No Cost EMI/Additional Exchange Offers</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>7,999</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy Z Flip3 5G (Cream, 8GB RAM, 128GB Storage) with No Cost EMI</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>11,490</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
